--- a/results/tables/accuracy_age_females_head.xlsx
+++ b/results/tables/accuracy_age_females_head.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8214285714285714</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9583333333333334</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8846153846153847</v>
+        <v>0.9056603773584906</v>
       </c>
       <c r="E2" t="n">
         <v>24</v>
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="D3" t="n">
-        <v>0.972972972972973</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="E3" t="n">
         <v>19</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9565217391304348</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8979591836734695</v>
+        <v>0.9387755102040816</v>
       </c>
       <c r="E4" t="n">
         <v>26</v>
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9130434782608695</v>
+        <v>0.927536231884058</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9130434782608695</v>
+        <v>0.927536231884058</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9130434782608695</v>
+        <v>0.927536231884058</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9130434782608695</v>
+        <v>0.927536231884058</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9259834368530021</v>
+        <v>0.9425287356321839</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9172852001799371</v>
+        <v>0.926450742240216</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9185158470872757</v>
+        <v>0.9296267773356721</v>
       </c>
       <c r="E6" t="n">
         <v>69</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9215050859663336</v>
+        <v>0.9400299850074962</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9130434782608695</v>
+        <v>0.927536231884058</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9139738332284918</v>
+        <v>0.9288182140051354</v>
       </c>
       <c r="E7" t="n">
         <v>69</v>
